--- a/output/questionnaires/2020-10-18_aargau.xlsx
+++ b/output/questionnaires/2020-10-18_aargau.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="HTML_1" vbProcedure="false">Sheet1!$A$101:$M$124</definedName>
@@ -6375,6 +6375,112 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/output/questionnaires/2020-10-18_aargau.xlsx
+++ b/output/questionnaires/2020-10-18_aargau.xlsx
@@ -6378,7 +6378,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>

--- a/output/questionnaires/2020-10-18_aargau.xlsx
+++ b/output/questionnaires/2020-10-18_aargau.xlsx
@@ -1704,7 +1704,7 @@
     <t xml:space="preserve">whether or not the respondent used readers’ letters or online comments to learn about the parties and candidates (only voters)</t>
   </si>
   <si>
-    <t xml:space="preserve">Informationsquelle: Soziale Medien wie Facebook oder Twitter</t>
+    <t xml:space="preserve">Informationsquelle: Soziale Medien wie Facebook oder X (ehemals Twitter)</t>
   </si>
   <si>
     <t xml:space="preserve">Soziale Medien wie Facebook oder Twitter</t>
